--- a/Endgültiges/Solarhalterung_EInkaufen.xlsx
+++ b/Endgültiges/Solarhalterung_EInkaufen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA3371E-B31C-444C-8AB3-C832E7A99E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A231334-3149-408E-83F9-2573EB0E749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35A08112-F35C-4875-841E-52ED1426BB4E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
   <si>
     <t>Artikel</t>
   </si>
@@ -151,24 +151,9 @@
     <t>Einpressmuttern:</t>
   </si>
   <si>
-    <t>T_muffe</t>
-  </si>
-  <si>
-    <t>https://www.wagnerinox.at/Reling-Fitting-T-Stueck-90-klappbar-fuer-Rohr-25mm-V4A</t>
-  </si>
-  <si>
     <t>Gelenk</t>
   </si>
   <si>
-    <t>https://inox-expert.com/bimini-gelenk-fuers-rohr-a4</t>
-  </si>
-  <si>
-    <t>90° muffe</t>
-  </si>
-  <si>
-    <t>https://www.wellenshop.de/relingverbinder-mit-900-winkel-fuer-25-mm-rohr</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
@@ -200,13 +185,79 @@
   </si>
   <si>
     <t>4mm² x 5m</t>
+  </si>
+  <si>
+    <t>90° Winkel</t>
+  </si>
+  <si>
+    <t>T Winkel</t>
+  </si>
+  <si>
+    <t>https://www.svb.de/de/edelstahl-t-verbinder.html</t>
+  </si>
+  <si>
+    <t>https://www.svb.de/de/edelstahl-winkelstueck.html</t>
+  </si>
+  <si>
+    <t>https://www.svb.de/de/endstueck-zur-relingsmontage-schwenkbar-edelstahl.html</t>
+  </si>
+  <si>
+    <t>End Muffe</t>
+  </si>
+  <si>
+    <t>D =20</t>
+  </si>
+  <si>
+    <t>D=25</t>
+  </si>
+  <si>
+    <t>https://www.svb.de/de/endstueck-fuer-rohre-edelstahl.html</t>
+  </si>
+  <si>
+    <t>Rohr</t>
+  </si>
+  <si>
+    <t>BodenWinkel</t>
+  </si>
+  <si>
+    <t>https://www.svb.de/de/unterteil-mit-sicherungsbolzen-gerade-edelstahl.html</t>
+  </si>
+  <si>
+    <t>https://www.svb.de/de/edelstahlrohre-v4a.html</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>Solar auf Davits</t>
+  </si>
+  <si>
+    <t>Solar auf Reling</t>
+  </si>
+  <si>
+    <t>Solarpanel</t>
+  </si>
+  <si>
+    <t>https://www.solara.de/deutsch/produkte/solarmodule-mit-rahmen/#S-Serie</t>
+  </si>
+  <si>
+    <t>1500x680x30</t>
+  </si>
+  <si>
+    <t>https://www.svb.de/de/ultraflex-gasfedern.html</t>
+  </si>
+  <si>
+    <t>Gasfeder</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +269,18 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -304,32 +367,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -373,6 +410,41 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -381,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -391,33 +463,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -535,8 +624,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4318</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6239</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177689</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -622,8 +711,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3747</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>13138</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1002,14 +1091,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532BE17D-1BF3-45DC-B7DB-EAB7B8CFA15D}">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="91.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.140625" customWidth="1"/>
@@ -1019,70 +1108,30 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G5" s="5"/>
       <c r="H5" s="1" t="s">
         <v>15</v>
@@ -1094,36 +1143,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
       <c r="G6" s="5"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
+      <c r="B7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>6</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
@@ -1137,15 +1180,17 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="3"/>
@@ -1153,15 +1198,17 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
@@ -1175,61 +1222,73 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>43</v>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="1" t="s">
         <v>15</v>
@@ -1242,12 +1301,32 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="2" t="s">
         <v>18</v>
@@ -1260,12 +1339,36 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="2" t="s">
         <v>20</v>
@@ -1277,13 +1380,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="2" t="s">
         <v>24</v>
@@ -1295,16 +1422,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="9" t="s">
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="G22" s="5"/>
       <c r="H22" s="1" t="s">
         <v>15</v>
@@ -1316,13 +1458,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="G23" s="5"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G24" s="5"/>
       <c r="H24" s="2" t="s">
         <v>18</v>
@@ -1334,13 +1480,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
       <c r="G25" s="5"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="2" t="s">
         <v>20</v>
@@ -1352,16 +1516,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="9" t="s">
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="1" t="s">
         <v>15</v>
@@ -1373,13 +1574,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="2" t="s">
         <v>18</v>
@@ -1391,13 +1614,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="18">
+        <v>33317</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="2" t="s">
         <v>20</v>
@@ -1409,13 +1656,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G34" s="5"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G35" s="5"/>
       <c r="H35" s="2" t="s">
         <v>24</v>
@@ -1427,16 +1674,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="9" t="s">
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G38" s="5"/>
       <c r="H38" s="1" t="s">
         <v>15</v>
@@ -1448,13 +1695,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G39" s="5"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G40" s="5"/>
       <c r="H40" s="2" t="s">
         <v>18</v>
@@ -1466,13 +1713,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G41" s="5"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G42" s="5"/>
       <c r="H42" s="2" t="s">
         <v>20</v>
@@ -1484,16 +1731,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G45" s="5"/>
       <c r="H45" s="1" t="s">
         <v>15</v>
@@ -1502,16 +1749,16 @@
         <v>34</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G46" s="5"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G47" s="5"/>
       <c r="H47" s="2" t="s">
         <v>18</v>
@@ -1521,7 +1768,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G48" s="5"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -1549,18 +1796,24 @@
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="H54" s="14"/>
-      <c r="I54" s="15" t="s">
+      <c r="H54" s="10"/>
+      <c r="I54" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="14" t="s">
-        <v>44</v>
+      <c r="J54" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" xr:uid="{04196F12-B38D-4D23-9552-5949D6BD5D2C}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{EC904A78-A1DA-4C55-B8EF-DA453DAC47FF}"/>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{04196F12-B38D-4D23-9552-5949D6BD5D2C}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{EC904A78-A1DA-4C55-B8EF-DA453DAC47FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Endgültiges/Solarhalterung_EInkaufen.xlsx
+++ b/Endgültiges/Solarhalterung_EInkaufen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A231334-3149-408E-83F9-2573EB0E749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFBADA4-DF65-412B-BF2D-9CA4BB104C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35A08112-F35C-4875-841E-52ED1426BB4E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>Artikel</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>Silentwind 400+</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -408,19 +411,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -453,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -495,6 +485,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,9 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -538,7 +527,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>7060</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>184469</xdr:rowOff>
+      <xdr:rowOff>165419</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -712,7 +701,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>3747</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>184588</xdr:rowOff>
+      <xdr:rowOff>175063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1091,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532BE17D-1BF3-45DC-B7DB-EAB7B8CFA15D}">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,18 +1097,18 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1144,28 +1133,28 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
       <c r="G6" s="5"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="5"/>
@@ -1180,16 +1169,16 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="5"/>
@@ -1481,12 +1470,12 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
       <c r="G25" s="5"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1701,7 +1690,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G40" s="5"/>
       <c r="H40" s="2" t="s">
         <v>18</v>
@@ -1713,13 +1702,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
       <c r="G41" s="5"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="2" t="s">
         <v>20</v>
@@ -1731,8 +1738,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
       <c r="G44" s="7" t="s">
         <v>45</v>
       </c>
@@ -1741,6 +1765,18 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="1" t="s">
         <v>15</v>
@@ -1753,12 +1789,20 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="3"/>
       <c r="G46" s="5"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="G47" s="5"/>
       <c r="H47" s="2" t="s">
         <v>18</v>
@@ -1769,12 +1813,20 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
       <c r="G48" s="5"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
       <c r="G49" s="5"/>
       <c r="H49" s="2" t="s">
         <v>20</v>
@@ -1784,7 +1836,7 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H53" s="2" t="s">
         <v>37</v>
       </c>
@@ -1795,7 +1847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H54" s="10"/>
       <c r="I54" s="11" t="s">
         <v>16</v>
@@ -1805,10 +1857,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B41:E41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
